--- a/GamelolCenterServer/GamelolCenter中心服务器指定集.xlsx
+++ b/GamelolCenterServer/GamelolCenter中心服务器指定集.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>type</t>
   </si>
@@ -107,18 +107,24 @@
   <si>
     <t>销毁道具</t>
   </si>
+  <si>
+    <t>2、SocialType</t>
+  </si>
+  <si>
+    <t>社交聊天</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,18 +140,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,28 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -194,7 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,9 +201,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,6 +230,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -247,21 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -269,16 +276,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +292,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -311,37 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,163 +484,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,11 +506,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,24 +569,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,30 +583,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,49 +606,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,101 +657,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -780,25 +761,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1235,24 +1207,24 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1262,35 +1234,35 @@
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1300,23 +1272,23 @@
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1326,27 +1298,27 @@
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1356,23 +1328,23 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1382,25 +1354,25 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
@@ -1410,19 +1382,19 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1432,19 +1404,19 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
@@ -1454,19 +1426,19 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1476,19 +1448,19 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1498,19 +1470,23 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -1520,19 +1496,19 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -1542,19 +1518,19 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -1564,19 +1540,19 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1586,19 +1562,19 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -1608,19 +1584,19 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -1630,19 +1606,19 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1652,19 +1628,19 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -1674,19 +1650,19 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -1696,19 +1672,19 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -1718,19 +1694,19 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -1740,19 +1716,19 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -1762,19 +1738,19 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -1784,19 +1760,19 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -1806,19 +1782,19 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -1828,19 +1804,19 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -1850,19 +1826,19 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -1872,19 +1848,19 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -1894,19 +1870,19 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -1916,19 +1892,19 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -1938,19 +1914,19 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -1960,19 +1936,19 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="1:20">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>

--- a/GamelolCenterServer/GamelolCenter中心服务器指定集.xlsx
+++ b/GamelolCenterServer/GamelolCenter中心服务器指定集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="11910" windowHeight="9930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
   <si>
     <t>type</t>
   </si>
@@ -112,6 +112,90 @@
   </si>
   <si>
     <t>社交聊天</t>
+  </si>
+  <si>
+    <t>1、Friend_Area</t>
+  </si>
+  <si>
+    <t>好友信息变更</t>
+  </si>
+  <si>
+    <t>0、Add_Command</t>
+  </si>
+  <si>
+    <t>添加聊天好友</t>
+  </si>
+  <si>
+    <t>FriendMessage</t>
+  </si>
+  <si>
+    <t>玩家好友信息</t>
+  </si>
+  <si>
+    <t>1、Find_Command</t>
+  </si>
+  <si>
+    <t>查找聊天好友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2、Delete_Command </t>
+  </si>
+  <si>
+    <t>删除聊天好友</t>
+  </si>
+  <si>
+    <t>3、Accept_Commmand</t>
+  </si>
+  <si>
+    <t>接受好友申请</t>
+  </si>
+  <si>
+    <t>ApplyMessage</t>
+  </si>
+  <si>
+    <t>好友申请信息</t>
+  </si>
+  <si>
+    <t>4、Get_Command</t>
+  </si>
+  <si>
+    <t>获取好友列表</t>
+  </si>
+  <si>
+    <t>5、Inform_Command</t>
+  </si>
+  <si>
+    <t>好友上线下线通知</t>
+  </si>
+  <si>
+    <t>2、Chat_Area</t>
+  </si>
+  <si>
+    <t>聊天信息发生</t>
+  </si>
+  <si>
+    <t>0、ALL_Command</t>
+  </si>
+  <si>
+    <t>信息发送给服务所有人</t>
+  </si>
+  <si>
+    <t>ChatMessage</t>
+  </si>
+  <si>
+    <t>玩家之间的聊天信息</t>
+  </si>
+  <si>
+    <t>1、friend_Command</t>
+  </si>
+  <si>
+    <t>信息发生给指定好友</t>
+  </si>
+  <si>
+    <t>3、Email_Area</t>
+  </si>
+  <si>
+    <t>邮件系统</t>
   </si>
 </sst>
 </file>
@@ -119,10 +203,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -134,13 +218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,28 +225,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -177,38 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,9 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,15 +271,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,7 +324,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,187 +394,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,20 +588,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,36 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -574,15 +625,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +643,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1119,8 +1203,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1476,12 +1560,24 @@
       <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1500,8 +1596,12 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1522,8 +1622,12 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1544,10 +1648,18 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1566,8 +1678,12 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1588,8 +1704,12 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -1608,12 +1728,24 @@
     <row r="20" spans="1:20">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -1632,8 +1764,12 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1652,8 +1788,12 @@
     <row r="22" spans="1:20">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3080,7 +3220,7 @@
       <c r="T86" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -3088,8 +3228,12 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H20:H21"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
